--- a/data/pca/factorExposure/factorExposure_2017-09-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02387624964061562</v>
+        <v>0.006923372255130514</v>
       </c>
       <c r="C2">
-        <v>-0.004117854908213939</v>
+        <v>0.04144589392498252</v>
       </c>
       <c r="D2">
-        <v>-0.01722589226955869</v>
+        <v>0.02954917818474421</v>
       </c>
       <c r="E2">
-        <v>0.009540987488028249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03234710283109392</v>
+      </c>
+      <c r="F2">
+        <v>-0.02239945834079494</v>
+      </c>
+      <c r="G2">
+        <v>0.04053474832503068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01397987790894939</v>
+        <v>0.05214911298635007</v>
       </c>
       <c r="C3">
-        <v>-0.05048424960853217</v>
+        <v>0.07447907611022797</v>
       </c>
       <c r="D3">
-        <v>-0.006128517536600333</v>
+        <v>0.01451075340525371</v>
       </c>
       <c r="E3">
-        <v>0.003756945708447073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09057178627465561</v>
+      </c>
+      <c r="F3">
+        <v>-0.06043618541065317</v>
+      </c>
+      <c r="G3">
+        <v>0.08425799217110957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02225715593391213</v>
+        <v>0.05526851374737993</v>
       </c>
       <c r="C4">
-        <v>-0.01875862020291288</v>
+        <v>0.06269150046212454</v>
       </c>
       <c r="D4">
-        <v>-0.06161730852498478</v>
+        <v>0.02316040215405553</v>
       </c>
       <c r="E4">
-        <v>-0.01795366950519619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01728515190337987</v>
+      </c>
+      <c r="F4">
+        <v>-0.008089451403840583</v>
+      </c>
+      <c r="G4">
+        <v>0.05794000397608216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01563665450510828</v>
+        <v>0.0371191600891467</v>
       </c>
       <c r="C6">
-        <v>-0.0257158182827034</v>
+        <v>0.04881424639040167</v>
       </c>
       <c r="D6">
-        <v>-0.07905192615368371</v>
+        <v>0.01540700757859999</v>
       </c>
       <c r="E6">
-        <v>-0.00842769072790491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01687207224017527</v>
+      </c>
+      <c r="F6">
+        <v>-0.01402195630654355</v>
+      </c>
+      <c r="G6">
+        <v>0.03560805599705214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0100998702672747</v>
+        <v>0.01530331360565354</v>
       </c>
       <c r="C7">
-        <v>-0.003167970361840464</v>
+        <v>0.03548478915386973</v>
       </c>
       <c r="D7">
-        <v>-0.03096948394651473</v>
+        <v>0.01335487334706304</v>
       </c>
       <c r="E7">
-        <v>-0.07245998050401097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008615372736784753</v>
+      </c>
+      <c r="F7">
+        <v>-0.005631716732678801</v>
+      </c>
+      <c r="G7">
+        <v>0.09465007080186105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002510736649964351</v>
+        <v>-0.00169321308495092</v>
       </c>
       <c r="C8">
-        <v>0.001811002531492212</v>
+        <v>0.01864232066164876</v>
       </c>
       <c r="D8">
-        <v>-0.004370930921845888</v>
+        <v>0.003813207467487736</v>
       </c>
       <c r="E8">
-        <v>-0.008538252596403024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02256007830946001</v>
+      </c>
+      <c r="F8">
+        <v>-0.02418890009732316</v>
+      </c>
+      <c r="G8">
+        <v>0.02992620749914917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01520353231467907</v>
+        <v>0.03133281959627158</v>
       </c>
       <c r="C9">
-        <v>-0.01941269771546836</v>
+        <v>0.04403691220607067</v>
       </c>
       <c r="D9">
-        <v>-0.04709287118963213</v>
+        <v>0.01602006812021834</v>
       </c>
       <c r="E9">
-        <v>-0.00782997947493194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01261594143680886</v>
+      </c>
+      <c r="F9">
+        <v>-0.01406396770669105</v>
+      </c>
+      <c r="G9">
+        <v>0.05191167825798666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01365980146382949</v>
+        <v>0.09265314980208895</v>
       </c>
       <c r="C10">
-        <v>-0.1582933688632071</v>
+        <v>-0.1842362494804037</v>
       </c>
       <c r="D10">
-        <v>0.1256090530096334</v>
+        <v>-0.01767107788199525</v>
       </c>
       <c r="E10">
-        <v>-0.01083844848182202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.009596342844237911</v>
+      </c>
+      <c r="F10">
+        <v>0.01769511020487424</v>
+      </c>
+      <c r="G10">
+        <v>0.04857318855251938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0004226275761525794</v>
+        <v>0.03117333200417651</v>
       </c>
       <c r="C11">
-        <v>-0.008730404462892525</v>
+        <v>0.05399333800090211</v>
       </c>
       <c r="D11">
-        <v>-0.04354723738840618</v>
+        <v>0.002331674188773735</v>
       </c>
       <c r="E11">
-        <v>0.006982816632232308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007411685665607392</v>
+      </c>
+      <c r="F11">
+        <v>-0.0244564288443272</v>
+      </c>
+      <c r="G11">
+        <v>0.03326522531225478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005850397957838667</v>
+        <v>0.03091842172322925</v>
       </c>
       <c r="C12">
-        <v>-0.01678868970966817</v>
+        <v>0.04672859717697765</v>
       </c>
       <c r="D12">
-        <v>-0.04468373995032438</v>
+        <v>0.006325036704236398</v>
       </c>
       <c r="E12">
-        <v>-0.002404026351131649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001099413534009617</v>
+      </c>
+      <c r="F12">
+        <v>-0.008478696447649366</v>
+      </c>
+      <c r="G12">
+        <v>0.03500658331691066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02179455391047959</v>
+        <v>0.01424145196872056</v>
       </c>
       <c r="C13">
-        <v>-0.01638709851689094</v>
+        <v>0.03127781260479762</v>
       </c>
       <c r="D13">
-        <v>-0.01538631030944638</v>
+        <v>0.02500217445981784</v>
       </c>
       <c r="E13">
-        <v>0.008163649398922182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0229634757959286</v>
+      </c>
+      <c r="F13">
+        <v>-0.01256294087688351</v>
+      </c>
+      <c r="G13">
+        <v>0.05029489750595182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007178743502135694</v>
+        <v>0.007585829060293414</v>
       </c>
       <c r="C14">
-        <v>-0.01285656155251495</v>
+        <v>0.02567481833561674</v>
       </c>
       <c r="D14">
-        <v>-0.01486793946932339</v>
+        <v>0.008692485453923716</v>
       </c>
       <c r="E14">
-        <v>-0.01223077568632273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.004986160301139061</v>
+      </c>
+      <c r="F14">
+        <v>0.002540957792597159</v>
+      </c>
+      <c r="G14">
+        <v>0.05171473689502262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001038642808256851</v>
+        <v>0.03078153366828789</v>
       </c>
       <c r="C16">
-        <v>-0.01628289318330887</v>
+        <v>0.04464801063391096</v>
       </c>
       <c r="D16">
-        <v>-0.04580173876190533</v>
+        <v>0.001727627441836977</v>
       </c>
       <c r="E16">
-        <v>-0.0001350587586937974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.006688257809122778</v>
+      </c>
+      <c r="F16">
+        <v>-0.01134187933605671</v>
+      </c>
+      <c r="G16">
+        <v>0.03377887413979051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0131570249831863</v>
+        <v>0.02375593771684068</v>
       </c>
       <c r="C19">
-        <v>-0.0240098072685426</v>
+        <v>0.04889119798745273</v>
       </c>
       <c r="D19">
-        <v>-0.0197814530649045</v>
+        <v>0.01627615382567087</v>
       </c>
       <c r="E19">
-        <v>-0.003809971403965909</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05432354279342477</v>
+      </c>
+      <c r="F19">
+        <v>-0.02677634538101707</v>
+      </c>
+      <c r="G19">
+        <v>0.06049097782234909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01017299070527342</v>
+        <v>0.01166832433927063</v>
       </c>
       <c r="C20">
-        <v>-0.006002952150374072</v>
+        <v>0.03315623734590904</v>
       </c>
       <c r="D20">
-        <v>-0.01186066604713511</v>
+        <v>0.01320258165244804</v>
       </c>
       <c r="E20">
-        <v>-0.0003544242788089222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02435738636691386</v>
+      </c>
+      <c r="F20">
+        <v>0.0007601461360675896</v>
+      </c>
+      <c r="G20">
+        <v>0.05128984321958745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01472528279576639</v>
+        <v>0.01315469136363037</v>
       </c>
       <c r="C21">
-        <v>-0.03291918037462483</v>
+        <v>0.03445011459402616</v>
       </c>
       <c r="D21">
-        <v>-0.01951040014406155</v>
+        <v>0.0166035676375516</v>
       </c>
       <c r="E21">
-        <v>-0.01923874796998472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03112550712186251</v>
+      </c>
+      <c r="F21">
+        <v>-0.004457951706040843</v>
+      </c>
+      <c r="G21">
+        <v>0.07379050193842711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004919143190604784</v>
+        <v>0.02450224558144348</v>
       </c>
       <c r="C24">
-        <v>-0.007197250385804231</v>
+        <v>0.04796311185204891</v>
       </c>
       <c r="D24">
-        <v>-0.04334842975356016</v>
+        <v>0.007262093423470606</v>
       </c>
       <c r="E24">
-        <v>0.001623226264880833</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003411450080515984</v>
+      </c>
+      <c r="F24">
+        <v>-0.02102271859057908</v>
+      </c>
+      <c r="G24">
+        <v>0.03620648748091395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01175697320968739</v>
+        <v>0.03914589644089957</v>
       </c>
       <c r="C25">
-        <v>-0.0249079764335855</v>
+        <v>0.0556428462661583</v>
       </c>
       <c r="D25">
-        <v>-0.04290837300780218</v>
+        <v>0.01137740354221333</v>
       </c>
       <c r="E25">
-        <v>0.0008475552825253362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.00400516241690458</v>
+      </c>
+      <c r="F25">
+        <v>-0.01636279053695561</v>
+      </c>
+      <c r="G25">
+        <v>0.0425269142748965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02275676313196952</v>
+        <v>0.01153176662387535</v>
       </c>
       <c r="C26">
-        <v>-0.01054184159770011</v>
+        <v>0.007551982963755016</v>
       </c>
       <c r="D26">
-        <v>0.006567985015743252</v>
+        <v>0.02338901855528333</v>
       </c>
       <c r="E26">
-        <v>-0.008930721934339678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003405282652835572</v>
+      </c>
+      <c r="F26">
+        <v>0.002428068935928788</v>
+      </c>
+      <c r="G26">
+        <v>0.03968774174092848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03334994790398714</v>
+        <v>0.1196254764304029</v>
       </c>
       <c r="C28">
-        <v>-0.229851166566264</v>
+        <v>-0.2305240700048419</v>
       </c>
       <c r="D28">
-        <v>0.1795621560723438</v>
+        <v>-0.008699487103504365</v>
       </c>
       <c r="E28">
-        <v>-0.02005282559560545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.002075635755961028</v>
+      </c>
+      <c r="F28">
+        <v>0.0158738991190843</v>
+      </c>
+      <c r="G28">
+        <v>0.06565994690337952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007506633897823143</v>
+        <v>0.01033739265132527</v>
       </c>
       <c r="C29">
-        <v>-0.0182134545837278</v>
+        <v>0.01914191836297679</v>
       </c>
       <c r="D29">
-        <v>-0.01029243014731975</v>
+        <v>0.007469566047731205</v>
       </c>
       <c r="E29">
-        <v>-0.007349203456259576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007363440810837773</v>
+      </c>
+      <c r="F29">
+        <v>0.01169858564603073</v>
+      </c>
+      <c r="G29">
+        <v>0.0422371659881902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02310330027249365</v>
+        <v>0.04445483972920481</v>
       </c>
       <c r="C30">
-        <v>-0.004449727951203288</v>
+        <v>0.06354743910667524</v>
       </c>
       <c r="D30">
-        <v>-0.06779718491858185</v>
+        <v>0.02753963261363025</v>
       </c>
       <c r="E30">
-        <v>0.05539374205176398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04373671157426099</v>
+      </c>
+      <c r="F30">
+        <v>-0.05422290444368066</v>
+      </c>
+      <c r="G30">
+        <v>0.02375040127583105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.008120654377033437</v>
+        <v>0.04937558618997685</v>
       </c>
       <c r="C31">
-        <v>-0.04564648886284364</v>
+        <v>0.03418308460791432</v>
       </c>
       <c r="D31">
-        <v>-0.04195258027094479</v>
+        <v>0.00358213989121709</v>
       </c>
       <c r="E31">
-        <v>-0.01006242379941324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00557118921803234</v>
+      </c>
+      <c r="F31">
+        <v>0.03406554936515691</v>
+      </c>
+      <c r="G31">
+        <v>0.04362068821727003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006799794339765289</v>
+        <v>-0.003854240879720499</v>
       </c>
       <c r="C32">
-        <v>-0.0201548782611821</v>
+        <v>0.02952574485920141</v>
       </c>
       <c r="D32">
-        <v>0.003659868609305733</v>
+        <v>-0.00397770250913606</v>
       </c>
       <c r="E32">
-        <v>-0.03138363487360306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01495343107807648</v>
+      </c>
+      <c r="F32">
+        <v>-0.0507357442912277</v>
+      </c>
+      <c r="G32">
+        <v>0.06465099431596942</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01262098469658462</v>
+        <v>0.02642644412463582</v>
       </c>
       <c r="C33">
-        <v>-0.02518108501063237</v>
+        <v>0.04609710358563445</v>
       </c>
       <c r="D33">
-        <v>-0.02199524712048648</v>
+        <v>0.01449356534671992</v>
       </c>
       <c r="E33">
-        <v>0.02242279702145644</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02703432782208228</v>
+      </c>
+      <c r="F33">
+        <v>-0.02590320310544921</v>
+      </c>
+      <c r="G33">
+        <v>0.05408627764951314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004533895855866262</v>
+        <v>0.03846131566861442</v>
       </c>
       <c r="C34">
-        <v>-0.02183723554731615</v>
+        <v>0.05822586285514245</v>
       </c>
       <c r="D34">
-        <v>-0.04649856946266407</v>
+        <v>-0.00444371302274982</v>
       </c>
       <c r="E34">
-        <v>-0.007841358475987624</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.003844041224836322</v>
+      </c>
+      <c r="F34">
+        <v>-0.02652890757341713</v>
+      </c>
+      <c r="G34">
+        <v>0.04641184973525367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01230863665023196</v>
+        <v>0.01158068056900363</v>
       </c>
       <c r="C36">
-        <v>-0.0215268022498224</v>
+        <v>0.007150863500931838</v>
       </c>
       <c r="D36">
-        <v>-0.001694833848686754</v>
+        <v>0.01151679946861367</v>
       </c>
       <c r="E36">
-        <v>-0.003535957004711597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0005507774576626943</v>
+      </c>
+      <c r="F36">
+        <v>0.005342896357504553</v>
+      </c>
+      <c r="G36">
+        <v>0.03573697502666704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.00474395437277004</v>
+        <v>0.03152950015580926</v>
       </c>
       <c r="C38">
-        <v>-0.03627963896079998</v>
+        <v>0.02811831764495313</v>
       </c>
       <c r="D38">
-        <v>-0.02372560006090652</v>
+        <v>-0.007517715879429732</v>
       </c>
       <c r="E38">
-        <v>-0.0002183167482862477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.005218283570262068</v>
+      </c>
+      <c r="F38">
+        <v>0.007553248954651141</v>
+      </c>
+      <c r="G38">
+        <v>0.04246449052124397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.006004404358741582</v>
+        <v>0.0312707682992921</v>
       </c>
       <c r="C39">
-        <v>0.01147227519510186</v>
+        <v>0.08125735129705967</v>
       </c>
       <c r="D39">
-        <v>-0.09303468106162452</v>
+        <v>0.01215555074416259</v>
       </c>
       <c r="E39">
-        <v>0.005374717323341102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0221227868813518</v>
+      </c>
+      <c r="F39">
+        <v>-0.03744821432916078</v>
+      </c>
+      <c r="G39">
+        <v>0.04011112564419102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01022697990883263</v>
+        <v>0.0191399217398808</v>
       </c>
       <c r="C40">
-        <v>-0.01160181193855067</v>
+        <v>0.03194070573986723</v>
       </c>
       <c r="D40">
-        <v>-0.03515687476768117</v>
+        <v>0.01324452258895155</v>
       </c>
       <c r="E40">
-        <v>0.001892200619840369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01986435956945868</v>
+      </c>
+      <c r="F40">
+        <v>-0.0195228135943137</v>
+      </c>
+      <c r="G40">
+        <v>0.03701649687466738</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.005513215747368992</v>
+        <v>0.01078229626425745</v>
       </c>
       <c r="C41">
-        <v>-0.02149648259644133</v>
+        <v>0.00129771187151884</v>
       </c>
       <c r="D41">
-        <v>0.00976114977967798</v>
+        <v>0.004055551929538385</v>
       </c>
       <c r="E41">
-        <v>-0.002708703168123314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001198899812496667</v>
+      </c>
+      <c r="F41">
+        <v>-0.001436771071945829</v>
+      </c>
+      <c r="G41">
+        <v>0.02423315270174881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09312816140358655</v>
+        <v>0.01482767452883476</v>
       </c>
       <c r="C42">
-        <v>-0.001259163873788324</v>
+        <v>0.04172785061017656</v>
       </c>
       <c r="D42">
-        <v>-0.2775388586346103</v>
+        <v>0.09438467047239872</v>
       </c>
       <c r="E42">
-        <v>0.2613952312261663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03614309286174949</v>
+      </c>
+      <c r="F42">
+        <v>0.04579201320836888</v>
+      </c>
+      <c r="G42">
+        <v>-0.1559076144805755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.006718991339972015</v>
+        <v>0.02843462547593461</v>
       </c>
       <c r="C43">
-        <v>-0.02438184737236974</v>
+        <v>0.01283464206154134</v>
       </c>
       <c r="D43">
-        <v>0.01385188349146569</v>
+        <v>0.004750453825909319</v>
       </c>
       <c r="E43">
-        <v>0.003872396933529252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.007758325609892794</v>
+      </c>
+      <c r="F43">
+        <v>-0.0004024223431303874</v>
+      </c>
+      <c r="G43">
+        <v>0.03454928033010116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003226681931601885</v>
+        <v>0.01373589456318301</v>
       </c>
       <c r="C44">
-        <v>-0.00747007660689295</v>
+        <v>0.04838350876627637</v>
       </c>
       <c r="D44">
-        <v>-0.02811126491668846</v>
+        <v>0.006445254299869533</v>
       </c>
       <c r="E44">
-        <v>-0.003703791027231567</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01723808078015742</v>
+      </c>
+      <c r="F44">
+        <v>-0.005336303149336634</v>
+      </c>
+      <c r="G44">
+        <v>0.05352252701928794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01064956341470165</v>
+        <v>0.004476227530922429</v>
       </c>
       <c r="C46">
-        <v>-0.01739688521321148</v>
+        <v>0.0175699108628152</v>
       </c>
       <c r="D46">
-        <v>-0.01042909500390668</v>
+        <v>0.01163129756819048</v>
       </c>
       <c r="E46">
-        <v>-0.001841054747985251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.005549445079683379</v>
+      </c>
+      <c r="F46">
+        <v>0.0150452652752151</v>
+      </c>
+      <c r="G46">
+        <v>0.03901396799098548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.002370440052900431</v>
+        <v>0.07520510174854148</v>
       </c>
       <c r="C47">
-        <v>-0.05944282187667066</v>
+        <v>0.06648511973329663</v>
       </c>
       <c r="D47">
-        <v>-0.0549740312381605</v>
+        <v>-0.004730014236036812</v>
       </c>
       <c r="E47">
-        <v>0.0005396879122891214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009238230296006235</v>
+      </c>
+      <c r="F47">
+        <v>0.05169348070491202</v>
+      </c>
+      <c r="G47">
+        <v>0.03933509104057223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003172371521412029</v>
+        <v>0.01984103223121404</v>
       </c>
       <c r="C48">
-        <v>-0.0283779836227878</v>
+        <v>0.008941885657823848</v>
       </c>
       <c r="D48">
-        <v>-0.009028976277536831</v>
+        <v>0.0008823112368435172</v>
       </c>
       <c r="E48">
-        <v>-0.004234376238159654</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003907624564767039</v>
+      </c>
+      <c r="F48">
+        <v>0.01491770255990659</v>
+      </c>
+      <c r="G48">
+        <v>0.04232113391615814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.003297680880460818</v>
+        <v>0.0779992374473391</v>
       </c>
       <c r="C50">
-        <v>-0.05067164555599085</v>
+        <v>0.06795981996262668</v>
       </c>
       <c r="D50">
-        <v>-0.06014155923044353</v>
+        <v>-0.003055320002304025</v>
       </c>
       <c r="E50">
-        <v>-0.02701144794833808</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01269600798683854</v>
+      </c>
+      <c r="F50">
+        <v>0.05417621012081797</v>
+      </c>
+      <c r="G50">
+        <v>0.06475658859919607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006724234156377523</v>
+        <v>0.01116438102053164</v>
       </c>
       <c r="C51">
-        <v>-0.01831052619001184</v>
+        <v>0.02957151409869969</v>
       </c>
       <c r="D51">
-        <v>0.001802938106684696</v>
+        <v>0.009111698307630063</v>
       </c>
       <c r="E51">
-        <v>-0.004012478773503413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.009952533502199577</v>
+      </c>
+      <c r="F51">
+        <v>-0.0209608747096304</v>
+      </c>
+      <c r="G51">
+        <v>0.06230403383412124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.005257469074684448</v>
+        <v>0.08210304837631746</v>
       </c>
       <c r="C53">
-        <v>-0.07393398169500635</v>
+        <v>0.08139854393998809</v>
       </c>
       <c r="D53">
-        <v>-0.1128904057287003</v>
+        <v>-0.004060530254925316</v>
       </c>
       <c r="E53">
-        <v>-0.01139733226565853</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03334784668354405</v>
+      </c>
+      <c r="F53">
+        <v>0.05558592580610835</v>
+      </c>
+      <c r="G53">
+        <v>0.04039555472133431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0001361761907651042</v>
+        <v>0.03072772175652102</v>
       </c>
       <c r="C54">
-        <v>-0.03612684907221358</v>
+        <v>0.01225072436921542</v>
       </c>
       <c r="D54">
-        <v>0.01032446283997596</v>
+        <v>-0.00286203156536423</v>
       </c>
       <c r="E54">
-        <v>-0.01094711105446997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0007866854092992978</v>
+      </c>
+      <c r="F54">
+        <v>0.004281499801603283</v>
+      </c>
+      <c r="G54">
+        <v>0.0452398011051764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.002549463769459</v>
+        <v>0.06984577546301955</v>
       </c>
       <c r="C55">
-        <v>-0.05464957513829297</v>
+        <v>0.07286428861157067</v>
       </c>
       <c r="D55">
-        <v>-0.09866458852110736</v>
+        <v>-0.004478373686791704</v>
       </c>
       <c r="E55">
-        <v>0.001702006105931953</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02474767249399169</v>
+      </c>
+      <c r="F55">
+        <v>0.05469493881850738</v>
+      </c>
+      <c r="G55">
+        <v>0.02237190180501887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.003168145681689543</v>
+        <v>0.1408219484662746</v>
       </c>
       <c r="C56">
-        <v>-0.1001730782436852</v>
+        <v>0.106705223263525</v>
       </c>
       <c r="D56">
-        <v>-0.1454960251575617</v>
+        <v>-0.0125258108841233</v>
       </c>
       <c r="E56">
-        <v>-0.001735819870326044</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03747203979877489</v>
+      </c>
+      <c r="F56">
+        <v>0.07906371369875972</v>
+      </c>
+      <c r="G56">
+        <v>0.01018160173070382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02407434758295943</v>
+        <v>0.009674633778294504</v>
       </c>
       <c r="C57">
-        <v>-0.02669432546968092</v>
+        <v>0.009866420751994386</v>
       </c>
       <c r="D57">
-        <v>-0.04042352173955552</v>
+        <v>0.0235209674642527</v>
       </c>
       <c r="E57">
-        <v>0.00232205374714774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02659539772426473</v>
+      </c>
+      <c r="F57">
+        <v>-0.01403905356177536</v>
+      </c>
+      <c r="G57">
+        <v>0.02469611325011908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0106603182757112</v>
+        <v>0.08196816895446264</v>
       </c>
       <c r="C58">
-        <v>-0.09641958660984365</v>
+        <v>0.03343877546718776</v>
       </c>
       <c r="D58">
-        <v>-0.0901751806994243</v>
+        <v>0.01489671851119543</v>
       </c>
       <c r="E58">
-        <v>0.2052262434251851</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9463110550931031</v>
+      </c>
+      <c r="F58">
+        <v>0.2215686452357619</v>
+      </c>
+      <c r="G58">
+        <v>-0.009302004389637224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02963368685527363</v>
+        <v>0.1601739757327494</v>
       </c>
       <c r="C59">
-        <v>-0.2441397025536353</v>
+        <v>-0.211491203022506</v>
       </c>
       <c r="D59">
-        <v>0.1810390614969857</v>
+        <v>-0.01598992315504802</v>
       </c>
       <c r="E59">
-        <v>0.00417168606184281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.002476877556257982</v>
+      </c>
+      <c r="F59">
+        <v>-0.0006631362252993322</v>
+      </c>
+      <c r="G59">
+        <v>0.02258555803192113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03425000483080402</v>
+        <v>0.2880810724557069</v>
       </c>
       <c r="C60">
-        <v>-0.1592822431622691</v>
+        <v>0.1023862903159298</v>
       </c>
       <c r="D60">
-        <v>-0.07865193351075568</v>
+        <v>0.01112833619232919</v>
       </c>
       <c r="E60">
-        <v>0.03729819065865128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.003429515706858157</v>
+      </c>
+      <c r="F60">
+        <v>-0.3537285490677749</v>
+      </c>
+      <c r="G60">
+        <v>-0.09787726225364811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003427090954583204</v>
+        <v>0.03316139184741033</v>
       </c>
       <c r="C61">
-        <v>-0.01180550873815142</v>
+        <v>0.06489565562498605</v>
       </c>
       <c r="D61">
-        <v>-0.06317336218500205</v>
+        <v>0.005543344891037405</v>
       </c>
       <c r="E61">
-        <v>-0.0003075051218846332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01109391239955131</v>
+      </c>
+      <c r="F61">
+        <v>-0.02261990884085203</v>
+      </c>
+      <c r="G61">
+        <v>0.03686855714615023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007329454554604414</v>
+        <v>0.01241220944458627</v>
       </c>
       <c r="C63">
-        <v>-0.008910459989289419</v>
+        <v>0.02753962342206636</v>
       </c>
       <c r="D63">
-        <v>-0.006485312748408158</v>
+        <v>0.008094299192702997</v>
       </c>
       <c r="E63">
-        <v>-0.009597886082243469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.003910582236878822</v>
+      </c>
+      <c r="F63">
+        <v>0.01466475720067172</v>
+      </c>
+      <c r="G63">
+        <v>0.04617472628207243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.00770884774445679</v>
+        <v>0.05021596018071388</v>
       </c>
       <c r="C64">
-        <v>-0.03426242056485729</v>
+        <v>0.04229430009692627</v>
       </c>
       <c r="D64">
-        <v>-0.06472979351277129</v>
+        <v>0.005619986140259624</v>
       </c>
       <c r="E64">
-        <v>0.009619909720892049</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.005341583653353267</v>
+      </c>
+      <c r="F64">
+        <v>-0.005016388956251523</v>
+      </c>
+      <c r="G64">
+        <v>0.03284160722474529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01784783637314126</v>
+        <v>0.08473888791259772</v>
       </c>
       <c r="C65">
-        <v>-0.02907092920585307</v>
+        <v>0.05911054353434107</v>
       </c>
       <c r="D65">
-        <v>-0.09071529641640703</v>
+        <v>0.01472126924461982</v>
       </c>
       <c r="E65">
-        <v>-0.007959201134057738</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01785237646577178</v>
+      </c>
+      <c r="F65">
+        <v>-0.03571511633822241</v>
+      </c>
+      <c r="G65">
+        <v>0.01692817160567289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005790048509906494</v>
+        <v>0.04934001478966419</v>
       </c>
       <c r="C66">
-        <v>0.001604379736842527</v>
+        <v>0.1130246847797559</v>
       </c>
       <c r="D66">
-        <v>-0.1194017255339653</v>
+        <v>0.01205464227279827</v>
       </c>
       <c r="E66">
-        <v>0.0179311411072139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0285066858624259</v>
+      </c>
+      <c r="F66">
+        <v>-0.04718359345355037</v>
+      </c>
+      <c r="G66">
+        <v>0.03544987989262614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0009327334705701393</v>
+        <v>0.05376691839312327</v>
       </c>
       <c r="C67">
-        <v>-0.05599636637751421</v>
+        <v>0.03260092228996053</v>
       </c>
       <c r="D67">
-        <v>-0.02889247055648739</v>
+        <v>-0.005587552778936459</v>
       </c>
       <c r="E67">
-        <v>0.002027342330977131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.001265690138138759</v>
+      </c>
+      <c r="F67">
+        <v>0.01090814393194406</v>
+      </c>
+      <c r="G67">
+        <v>0.03871364283344161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04781313005713862</v>
+        <v>0.1430057629413146</v>
       </c>
       <c r="C68">
-        <v>-0.2204715823272514</v>
+        <v>-0.269879657938094</v>
       </c>
       <c r="D68">
-        <v>0.168909096630656</v>
+        <v>0.002382059357060932</v>
       </c>
       <c r="E68">
-        <v>0.009500042191811877</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003998380359057325</v>
+      </c>
+      <c r="F68">
+        <v>0.0385509587765175</v>
+      </c>
+      <c r="G68">
+        <v>0.02418941648035367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.002372497038848628</v>
+        <v>0.07524495437805799</v>
       </c>
       <c r="C69">
-        <v>-0.0466540047964483</v>
+        <v>0.06858025372506064</v>
       </c>
       <c r="D69">
-        <v>-0.06136655015807405</v>
+        <v>-0.008434037555708452</v>
       </c>
       <c r="E69">
-        <v>-0.003374412547934841</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02712254970779851</v>
+      </c>
+      <c r="F69">
+        <v>0.03776760371997583</v>
+      </c>
+      <c r="G69">
+        <v>0.04455814320943963</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03412308559164254</v>
+        <v>0.1372621087472551</v>
       </c>
       <c r="C71">
-        <v>-0.1938166871017579</v>
+        <v>-0.2332990703655041</v>
       </c>
       <c r="D71">
-        <v>0.1532324051556836</v>
+        <v>-0.006529657975039471</v>
       </c>
       <c r="E71">
-        <v>-0.003301607235014144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0223786987285238</v>
+      </c>
+      <c r="F71">
+        <v>0.00940500131538919</v>
+      </c>
+      <c r="G71">
+        <v>0.03819475072134237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001162547172304363</v>
+        <v>0.08475634022105351</v>
       </c>
       <c r="C72">
-        <v>-0.0565291931876522</v>
+        <v>0.07266762835419641</v>
       </c>
       <c r="D72">
-        <v>-0.1307102656687622</v>
+        <v>-0.0083608027485104</v>
       </c>
       <c r="E72">
-        <v>0.0176768314544624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.00514646860659759</v>
+      </c>
+      <c r="F72">
+        <v>-0.04149885674463935</v>
+      </c>
+      <c r="G72">
+        <v>0.01487619228640255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04846414392342138</v>
+        <v>0.3988887786519821</v>
       </c>
       <c r="C73">
-        <v>-0.199062151547986</v>
+        <v>0.1141404843565602</v>
       </c>
       <c r="D73">
-        <v>-0.1590790917802942</v>
+        <v>0.01697892506790409</v>
       </c>
       <c r="E73">
-        <v>0.09320712078995515</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05603396888902525</v>
+      </c>
+      <c r="F73">
+        <v>-0.5513924373513057</v>
+      </c>
+      <c r="G73">
+        <v>-0.1774250247819329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001197579240745333</v>
+        <v>0.1104660950923381</v>
       </c>
       <c r="C74">
-        <v>-0.09415492321923823</v>
+        <v>0.11677671524712</v>
       </c>
       <c r="D74">
-        <v>-0.1502593095688864</v>
+        <v>-0.009573393697492957</v>
       </c>
       <c r="E74">
-        <v>0.006035526591792047</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01557091255755017</v>
+      </c>
+      <c r="F74">
+        <v>0.07164522592904445</v>
+      </c>
+      <c r="G74">
+        <v>0.04821222451783924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.006317855317567461</v>
+        <v>0.2485255350406751</v>
       </c>
       <c r="C75">
-        <v>-0.2107487083190029</v>
+        <v>0.1579863227504439</v>
       </c>
       <c r="D75">
-        <v>-0.2710852543075146</v>
+        <v>-0.02939459189189771</v>
       </c>
       <c r="E75">
-        <v>0.0217073810218577</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05330847898756538</v>
+      </c>
+      <c r="F75">
+        <v>0.186078296040995</v>
+      </c>
+      <c r="G75">
+        <v>-0.03547711314544869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.00263086270980352</v>
+        <v>0.1235209940545646</v>
       </c>
       <c r="C76">
-        <v>-0.1422840835434284</v>
+        <v>0.1178928364258841</v>
       </c>
       <c r="D76">
-        <v>-0.2144862846496684</v>
+        <v>-0.02030042829841259</v>
       </c>
       <c r="E76">
-        <v>-0.01253389390970294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04978533296066812</v>
+      </c>
+      <c r="F76">
+        <v>0.117895017247413</v>
+      </c>
+      <c r="G76">
+        <v>0.02446250170948344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01213848720001608</v>
+        <v>0.06537168281357519</v>
       </c>
       <c r="C77">
-        <v>-0.02369534792352652</v>
+        <v>0.0605217820331158</v>
       </c>
       <c r="D77">
-        <v>-0.05284352921838774</v>
+        <v>0.01206210565244903</v>
       </c>
       <c r="E77">
-        <v>0.006822018519379666</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.05030202330047042</v>
+      </c>
+      <c r="F77">
+        <v>-0.015911702371738</v>
+      </c>
+      <c r="G77">
+        <v>0.04963251793654607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003898280227588027</v>
+        <v>0.04109552438336498</v>
       </c>
       <c r="C78">
-        <v>-0.01366495174504255</v>
+        <v>0.05094355039511205</v>
       </c>
       <c r="D78">
-        <v>-0.06418878601940185</v>
+        <v>0.005509930300639359</v>
       </c>
       <c r="E78">
-        <v>-0.002770642846743567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02099092007582411</v>
+      </c>
+      <c r="F78">
+        <v>-0.04457623522940173</v>
+      </c>
+      <c r="G78">
+        <v>0.04367911646152815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01559530659302276</v>
+        <v>0.0532673676711154</v>
       </c>
       <c r="C80">
-        <v>-0.1145257260237004</v>
+        <v>0.06309560982489698</v>
       </c>
       <c r="D80">
-        <v>-0.1482158848210939</v>
+        <v>0.0132699301527236</v>
       </c>
       <c r="E80">
-        <v>-0.9175184277989433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03742814731270105</v>
+      </c>
+      <c r="F80">
+        <v>-0.04756597433551419</v>
+      </c>
+      <c r="G80">
+        <v>0.868603450455957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.004951102010025359</v>
+        <v>0.1437799007503999</v>
       </c>
       <c r="C81">
-        <v>-0.1308042906934571</v>
+        <v>0.09438906970710359</v>
       </c>
       <c r="D81">
-        <v>-0.1609258946778014</v>
+        <v>-0.01482385293715365</v>
       </c>
       <c r="E81">
-        <v>0.002824916354788356</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03074048554343018</v>
+      </c>
+      <c r="F81">
+        <v>0.1221693347070716</v>
+      </c>
+      <c r="G81">
+        <v>0.02215610916170848</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.09698709762581351</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05445427717656624</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.004541594037754478</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07564212872109156</v>
+      </c>
+      <c r="F82">
+        <v>0.01235837084139437</v>
+      </c>
+      <c r="G82">
+        <v>0.01486573818282113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007044016458700137</v>
+        <v>0.03023069077949527</v>
       </c>
       <c r="C83">
-        <v>-0.0278087222489847</v>
+        <v>0.02049109597994771</v>
       </c>
       <c r="D83">
-        <v>-0.0213223738713356</v>
+        <v>0.005176744691056001</v>
       </c>
       <c r="E83">
-        <v>0.003680795116044646</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02486069439785832</v>
+      </c>
+      <c r="F83">
+        <v>-0.02202942214039677</v>
+      </c>
+      <c r="G83">
+        <v>0.03087415835854866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01288534971473328</v>
+        <v>0.2228483540713582</v>
       </c>
       <c r="C85">
-        <v>-0.1628049640394839</v>
+        <v>0.1502253641033569</v>
       </c>
       <c r="D85">
-        <v>-0.2563587569313699</v>
+        <v>-0.01780023285850875</v>
       </c>
       <c r="E85">
-        <v>0.02635541712541664</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09435296764331508</v>
+      </c>
+      <c r="F85">
+        <v>0.1579444860312321</v>
+      </c>
+      <c r="G85">
+        <v>-0.06031894722538166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007228013507875681</v>
+        <v>0.009724913691619394</v>
       </c>
       <c r="C86">
-        <v>-0.02768747598143237</v>
+        <v>0.016217804550596</v>
       </c>
       <c r="D86">
-        <v>-0.008074585481757563</v>
+        <v>0.0101775549228809</v>
       </c>
       <c r="E86">
-        <v>0.02110815394119658</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0335760040486552</v>
+      </c>
+      <c r="F86">
+        <v>-0.03254768406434749</v>
+      </c>
+      <c r="G86">
+        <v>0.07622125421836062</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007353733956700846</v>
+        <v>0.01965140304153237</v>
       </c>
       <c r="C87">
-        <v>-0.01568150313502054</v>
+        <v>0.02397322532679344</v>
       </c>
       <c r="D87">
-        <v>-0.04217086371378151</v>
+        <v>0.0106003905475424</v>
       </c>
       <c r="E87">
-        <v>0.003408466649883821</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08235718908630531</v>
+      </c>
+      <c r="F87">
+        <v>-0.02869703110643786</v>
+      </c>
+      <c r="G87">
+        <v>0.05793208932857578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02684221888313118</v>
+        <v>0.08762401744461068</v>
       </c>
       <c r="C88">
-        <v>-0.04058336565332801</v>
+        <v>0.06550357587617286</v>
       </c>
       <c r="D88">
-        <v>-0.03476124371100552</v>
+        <v>0.02289021788678659</v>
       </c>
       <c r="E88">
-        <v>0.002819344226385545</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01476769404467452</v>
+      </c>
+      <c r="F88">
+        <v>0.0140224059747238</v>
+      </c>
+      <c r="G88">
+        <v>0.0327488861849342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.06450491932578559</v>
+        <v>0.2260028355774118</v>
       </c>
       <c r="C89">
-        <v>-0.3519031855460395</v>
+        <v>-0.3640626900737466</v>
       </c>
       <c r="D89">
-        <v>0.2568144639674816</v>
+        <v>-0.005399188016692955</v>
       </c>
       <c r="E89">
-        <v>0.01830623155327631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02217115158402945</v>
+      </c>
+      <c r="F89">
+        <v>0.02727134014435229</v>
+      </c>
+      <c r="G89">
+        <v>0.03582957150076013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04932753494453228</v>
+        <v>0.1986778647435185</v>
       </c>
       <c r="C90">
-        <v>-0.2712645938450438</v>
+        <v>-0.3284796159334279</v>
       </c>
       <c r="D90">
-        <v>0.2344982992773586</v>
+        <v>-0.009356353622275826</v>
       </c>
       <c r="E90">
-        <v>0.01979761570905104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02215107745181686</v>
+      </c>
+      <c r="F90">
+        <v>0.04674100656634098</v>
+      </c>
+      <c r="G90">
+        <v>0.005758677717519449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001970553835621969</v>
+        <v>0.1980272834034199</v>
       </c>
       <c r="C91">
-        <v>-0.1695093566663758</v>
+        <v>0.1405827839539249</v>
       </c>
       <c r="D91">
-        <v>-0.2270175637221781</v>
+        <v>-0.02335887712834949</v>
       </c>
       <c r="E91">
-        <v>0.004804201999615806</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07074657412468344</v>
+      </c>
+      <c r="F91">
+        <v>0.161896092933539</v>
+      </c>
+      <c r="G91">
+        <v>0.009586629875232767</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.01552446315064033</v>
+        <v>0.2041090307539161</v>
       </c>
       <c r="C92">
-        <v>-0.3065189365232176</v>
+        <v>-0.2624765347987382</v>
       </c>
       <c r="D92">
-        <v>0.116669333402274</v>
+        <v>-0.04581125175124428</v>
       </c>
       <c r="E92">
-        <v>0.01229131168344815</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003317887404850953</v>
+      </c>
+      <c r="F92">
+        <v>0.0759233323846385</v>
+      </c>
+      <c r="G92">
+        <v>0.07448984227780711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04679837307206192</v>
+        <v>0.2291121539698931</v>
       </c>
       <c r="C93">
-        <v>-0.3026834731702218</v>
+        <v>-0.3224122296933011</v>
       </c>
       <c r="D93">
-        <v>0.2308234059990179</v>
+        <v>-0.01659512581265311</v>
       </c>
       <c r="E93">
-        <v>0.04089395800499937</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009101660783055222</v>
+      </c>
+      <c r="F93">
+        <v>0.04169779106208629</v>
+      </c>
+      <c r="G93">
+        <v>0.004350551092089826</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02480309780636132</v>
+        <v>0.3031045408849892</v>
       </c>
       <c r="C94">
-        <v>-0.208550375943812</v>
+        <v>0.1881390421821225</v>
       </c>
       <c r="D94">
-        <v>-0.2404440888527984</v>
+        <v>-0.0141347360060077</v>
       </c>
       <c r="E94">
-        <v>0.05438687095325422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.148500857284132</v>
+      </c>
+      <c r="F94">
+        <v>0.496654392606613</v>
+      </c>
+      <c r="G94">
+        <v>-0.1706172256328665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00467197651099247</v>
+        <v>0.08441330520344779</v>
       </c>
       <c r="C95">
-        <v>-0.0575905259982595</v>
+        <v>0.07441379286529853</v>
       </c>
       <c r="D95">
-        <v>-0.09281231386456217</v>
+        <v>-0.008183799737972749</v>
       </c>
       <c r="E95">
-        <v>0.1114642011009045</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06486878522999327</v>
+      </c>
+      <c r="F95">
+        <v>-0.1536156244746183</v>
+      </c>
+      <c r="G95">
+        <v>-0.06885106492509013</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.009224615141993213</v>
+        <v>0.1986975097988149</v>
       </c>
       <c r="C98">
-        <v>-0.169272792392662</v>
+        <v>0.04160660408990548</v>
       </c>
       <c r="D98">
-        <v>-0.112389706572149</v>
+        <v>-0.01426050280323954</v>
       </c>
       <c r="E98">
-        <v>0.05205996580493621</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06442544120864371</v>
+      </c>
+      <c r="F98">
+        <v>-0.2499218596143727</v>
+      </c>
+      <c r="G98">
+        <v>-0.0292955288395335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007296457556376196</v>
+        <v>0.01016693814270957</v>
       </c>
       <c r="C101">
-        <v>-0.01781528726879105</v>
+        <v>0.01921032978045243</v>
       </c>
       <c r="D101">
-        <v>-0.0100739175515824</v>
+        <v>0.007287833737325844</v>
       </c>
       <c r="E101">
-        <v>-0.007799894028600322</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.007637901249726931</v>
+      </c>
+      <c r="F101">
+        <v>0.01297961391900288</v>
+      </c>
+      <c r="G101">
+        <v>0.04214461942060824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01579504496548232</v>
+        <v>0.1185620565078368</v>
       </c>
       <c r="C102">
-        <v>-0.09549628934804169</v>
+        <v>0.0858935811040837</v>
       </c>
       <c r="D102">
-        <v>-0.1235169993842364</v>
+        <v>0.001704232027182421</v>
       </c>
       <c r="E102">
-        <v>0.01184473458810262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03012274951977217</v>
+      </c>
+      <c r="F102">
+        <v>0.0343878089223681</v>
+      </c>
+      <c r="G102">
+        <v>-0.002254217936302536</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001412405210785544</v>
+        <v>0.003657238796215333</v>
       </c>
       <c r="C103">
-        <v>-0.01313281266279861</v>
+        <v>0.005078144746080268</v>
       </c>
       <c r="D103">
-        <v>-0.02632302797083607</v>
+        <v>0.0001344921519424966</v>
       </c>
       <c r="E103">
-        <v>-0.01491441092923628</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001543949917189793</v>
+      </c>
+      <c r="F103">
+        <v>0.008666354166431418</v>
+      </c>
+      <c r="G103">
+        <v>0.01604656841054678</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9820063294987554</v>
+        <v>0.02867508359495041</v>
       </c>
       <c r="C104">
-        <v>0.1318766815635672</v>
+        <v>-0.03851027127128978</v>
       </c>
       <c r="D104">
-        <v>0.003843447906495088</v>
+        <v>0.9875858006226267</v>
       </c>
       <c r="E104">
-        <v>-0.0246215714371777</v>
+        <v>-0.03740381351307246</v>
+      </c>
+      <c r="F104">
+        <v>0.04090718984880392</v>
+      </c>
+      <c r="G104">
+        <v>-0.01211026910928972</v>
       </c>
     </row>
   </sheetData>
